--- a/src/TestCaseTenlyx.xlsx
+++ b/src/TestCaseTenlyx.xlsx
@@ -5,31 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karin\Desktop\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karin\Desktop\Telnyx\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6018DD-FEB3-45A1-AE5E-D919C0EF295E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DB30AD-EB65-405C-A751-10FDCC7C8325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Case 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Case 2" sheetId="4" r:id="rId2"/>
-    <sheet name="Test Case 3" sheetId="5" r:id="rId3"/>
-    <sheet name="Test Case 4" sheetId="6" r:id="rId4"/>
-    <sheet name="Test Case 5" sheetId="7" r:id="rId5"/>
-    <sheet name="Test Case 6" sheetId="8" r:id="rId6"/>
-    <sheet name="Test Case 7" sheetId="9" r:id="rId7"/>
-    <sheet name="Test Case 8" sheetId="10" r:id="rId8"/>
-    <sheet name="Test Case 9" sheetId="11" r:id="rId9"/>
-    <sheet name="Test Case 10" sheetId="12" r:id="rId10"/>
+    <sheet name="TS_0001" sheetId="1" r:id="rId1"/>
+    <sheet name="TS_0002" sheetId="4" r:id="rId2"/>
+    <sheet name="TS_0003" sheetId="5" r:id="rId3"/>
+    <sheet name="TS_0004" sheetId="6" r:id="rId4"/>
+    <sheet name="TS_0005" sheetId="7" r:id="rId5"/>
+    <sheet name="TS_0006" sheetId="8" r:id="rId6"/>
+    <sheet name="TS_0007" sheetId="9" r:id="rId7"/>
+    <sheet name="TS_0008" sheetId="10" r:id="rId8"/>
+    <sheet name="TS_0009" sheetId="11" r:id="rId9"/>
+    <sheet name="TS_0010" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="80000"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="115">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Windows  10x64</t>
   </si>
   <si>
-    <t>Enviroment:Node.js 18.12.1,Cypress Framework,VSC 1.74.0</t>
-  </si>
-  <si>
     <t>Open the site https://telnyx.com/</t>
   </si>
   <si>
@@ -130,12 +127,6 @@
     <t>TS_0002</t>
   </si>
   <si>
-    <t>Search be Support Center</t>
-  </si>
-  <si>
-    <t>Testing search results page with valid data.</t>
-  </si>
-  <si>
     <t>All social link is clickable.</t>
   </si>
   <si>
@@ -172,9 +163,6 @@
     <t>TS_0003</t>
   </si>
   <si>
-    <t>Testing no search results page with invalid data.</t>
-  </si>
-  <si>
     <t>The invalid data should be displayed in the search field.</t>
   </si>
   <si>
@@ -283,9 +271,6 @@
     <t>The message stating that your request to reset your password was accepted.</t>
   </si>
   <si>
-    <t>Log In form, Password recovery</t>
-  </si>
-  <si>
     <t>Checking the password recovery function on the site.</t>
   </si>
   <si>
@@ -325,9 +310,6 @@
     <t>Checking registration form on the site with valid data.</t>
   </si>
   <si>
-    <t>Registration form.</t>
-  </si>
-  <si>
     <t>The "We've sent you an email to activate your account" message should be displayed on the new page.</t>
   </si>
   <si>
@@ -358,9 +340,6 @@
     <t>Checking products menu on the site.</t>
   </si>
   <si>
-    <t>Navigation menu</t>
-  </si>
-  <si>
     <t>Hover on "Products" link</t>
   </si>
   <si>
@@ -377,6 +356,24 @@
   </si>
   <si>
     <t>The  messages about entering an invalid data should be displayed inder "Business email" field, the fields is highlighted in red.</t>
+  </si>
+  <si>
+    <t>Verify search results page with valid data.</t>
+  </si>
+  <si>
+    <t>Checking search by Support Center</t>
+  </si>
+  <si>
+    <t>Verify no search results page with invalid data.</t>
+  </si>
+  <si>
+    <t>Checking "Log In" form, Password recovery</t>
+  </si>
+  <si>
+    <t>Verify registration form.</t>
+  </si>
+  <si>
+    <t>Verify navigation menu</t>
   </si>
 </sst>
 </file>
@@ -624,13 +621,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -955,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:E21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -981,7 +978,7 @@
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
@@ -1007,10 +1004,10 @@
         <v>11</v>
       </c>
       <c r="I2" s="15"/>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="31"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -1154,9 +1151,7 @@
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>25</v>
-      </c>
+      <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="3"/>
@@ -1204,7 +1199,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1241,8 +1236,8 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="27"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="35"/>
@@ -1257,11 +1252,11 @@
         <v>1</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="23" t="s">
@@ -1280,11 +1275,11 @@
         <v>2</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="23" t="s">
@@ -1303,11 +1298,11 @@
         <v>3</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="23" t="s">
@@ -1326,11 +1321,11 @@
         <v>4</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="23" t="s">
@@ -1437,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA3FE88-DBDB-4CDA-8E48-3549F45DA807}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:E19"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1453,14 +1448,14 @@
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="24" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
@@ -1486,10 +1481,10 @@
         <v>11</v>
       </c>
       <c r="I2" s="15"/>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="31"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -1633,9 +1628,7 @@
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>25</v>
-      </c>
+      <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="3"/>
@@ -1683,7 +1676,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1733,8 +1726,8 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="35"/>
@@ -1749,11 +1742,11 @@
         <v>1</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="23" t="s">
@@ -1772,11 +1765,11 @@
         <v>2</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="16" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="23" t="s">
@@ -1795,11 +1788,11 @@
         <v>3</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="16" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="23" t="s">
@@ -1916,8 +1909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:E23"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1932,14 +1925,14 @@
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="24" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
@@ -1965,10 +1958,10 @@
         <v>11</v>
       </c>
       <c r="I2" s="15"/>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="31"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -2112,9 +2105,7 @@
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>25</v>
-      </c>
+      <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="3"/>
@@ -2162,7 +2153,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2212,8 +2203,8 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="35"/>
@@ -2228,11 +2219,11 @@
         <v>1</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="23" t="s">
@@ -2251,11 +2242,11 @@
         <v>2</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="23" t="s">
@@ -2274,11 +2265,11 @@
         <v>3</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="23" t="s">
@@ -2297,11 +2288,11 @@
         <v>4</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="23" t="s">
@@ -2320,11 +2311,11 @@
         <v>5</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="47" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="40" t="s">
@@ -2418,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2434,14 +2425,14 @@
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="24" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
@@ -2467,10 +2458,10 @@
         <v>11</v>
       </c>
       <c r="I2" s="15"/>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="31"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -2614,9 +2605,7 @@
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>25</v>
-      </c>
+      <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="3"/>
@@ -2664,7 +2653,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2714,8 +2703,8 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="35"/>
@@ -2730,11 +2719,11 @@
         <v>1</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="23" t="s">
@@ -2753,11 +2742,11 @@
         <v>2</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="23" t="s">
@@ -2776,11 +2765,11 @@
         <v>3</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="23" t="s">
@@ -2799,11 +2788,11 @@
         <v>4</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="23" t="s">
@@ -2822,11 +2811,11 @@
         <v>5</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="47" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="40" t="s">
@@ -2919,8 +2908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E22C42-2BF4-46B6-B1F8-C599F3402D54}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:E21"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2935,14 +2924,14 @@
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
@@ -2968,10 +2957,10 @@
         <v>11</v>
       </c>
       <c r="I2" s="15"/>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="31"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -3115,9 +3104,7 @@
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>25</v>
-      </c>
+      <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="3"/>
@@ -3165,7 +3152,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3215,8 +3202,8 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="35"/>
@@ -3231,11 +3218,11 @@
         <v>1</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="23" t="s">
@@ -3254,11 +3241,11 @@
         <v>2</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="23" t="s">
@@ -3277,11 +3264,11 @@
         <v>3</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="23" t="s">
@@ -3300,11 +3287,11 @@
         <v>4</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="23" t="s">
@@ -3323,11 +3310,11 @@
         <v>5</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="47" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="40" t="s">
@@ -3418,8 +3405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408CE683-D111-4116-8F10-D2C7F89D010F}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:C20"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3435,14 +3422,14 @@
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
@@ -3468,10 +3455,10 @@
         <v>11</v>
       </c>
       <c r="I2" s="15"/>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="31"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -3615,9 +3602,7 @@
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>25</v>
-      </c>
+      <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="3"/>
@@ -3665,7 +3650,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3715,8 +3700,8 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="35"/>
@@ -3731,11 +3716,11 @@
         <v>1</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="23" t="s">
@@ -3754,11 +3739,11 @@
         <v>2</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="23" t="s">
@@ -3777,11 +3762,11 @@
         <v>3</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="23" t="s">
@@ -3800,11 +3785,11 @@
         <v>4</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="23" t="s">
@@ -3823,11 +3808,11 @@
         <v>5</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="47" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="40" t="s">
@@ -3918,8 +3903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164F1169-7D68-4983-9469-CF855E8AC37A}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3935,14 +3920,14 @@
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
@@ -3968,10 +3953,10 @@
         <v>11</v>
       </c>
       <c r="I2" s="15"/>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="31"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -4035,7 +4020,7 @@
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K6" s="33"/>
     </row>
@@ -4115,9 +4100,7 @@
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>25</v>
-      </c>
+      <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="3"/>
@@ -4165,7 +4148,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4215,8 +4198,8 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="35"/>
@@ -4231,11 +4214,11 @@
         <v>1</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="23" t="s">
@@ -4254,11 +4237,11 @@
         <v>2</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="23" t="s">
@@ -4277,11 +4260,11 @@
         <v>3</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="23" t="s">
@@ -4300,11 +4283,11 @@
         <v>4</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="16" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="23" t="s">
@@ -4323,11 +4306,11 @@
         <v>5</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="47" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="23" t="s">
@@ -4418,8 +4401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51736AC0-10AF-4D32-B82C-EE208A413070}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4434,14 +4417,14 @@
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="24" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
@@ -4467,10 +4450,10 @@
         <v>11</v>
       </c>
       <c r="I2" s="15"/>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="31"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -4586,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
@@ -4616,9 +4599,7 @@
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>25</v>
-      </c>
+      <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="3"/>
@@ -4666,7 +4647,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4716,8 +4697,8 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="35"/>
@@ -4732,11 +4713,11 @@
         <v>1</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="23" t="s">
@@ -4755,11 +4736,11 @@
         <v>2</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="23" t="s">
@@ -4778,11 +4759,11 @@
         <v>3</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="23" t="s">
@@ -4801,11 +4782,11 @@
         <v>4</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="23" t="s">
@@ -4824,11 +4805,11 @@
         <v>5</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="47" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="40" t="s">
@@ -4919,8 +4900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07846BE-33E3-473E-9DE8-77A6F0A64A39}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22:K22"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4935,14 +4916,14 @@
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="24" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
@@ -4968,10 +4949,10 @@
         <v>11</v>
       </c>
       <c r="I2" s="15"/>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="31"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -5087,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
@@ -5108,7 +5089,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
@@ -5119,9 +5100,7 @@
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>25</v>
-      </c>
+      <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="3"/>
@@ -5169,7 +5148,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -5219,8 +5198,8 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="35"/>
@@ -5235,11 +5214,11 @@
         <v>1</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="23" t="s">
@@ -5258,11 +5237,11 @@
         <v>2</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="16" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="23" t="s">
@@ -5281,11 +5260,11 @@
         <v>3</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="23" t="s">
@@ -5304,11 +5283,11 @@
         <v>4</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="23" t="s">
@@ -5327,20 +5306,20 @@
         <v>5</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="47" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="40" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G22" s="41"/>
       <c r="H22" s="42"/>
       <c r="I22" s="40" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J22" s="41"/>
       <c r="K22" s="42"/>
@@ -5423,8 +5402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43AE794-7E75-4930-9887-B16713A71E59}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5438,14 +5417,14 @@
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="24" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
@@ -5471,10 +5450,10 @@
         <v>11</v>
       </c>
       <c r="I2" s="15"/>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="31"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -5590,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
@@ -5620,9 +5599,7 @@
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>25</v>
-      </c>
+      <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="3"/>
@@ -5670,7 +5647,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -5720,8 +5697,8 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="35"/>
@@ -5736,11 +5713,11 @@
         <v>1</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="16" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="23" t="s">
@@ -5759,11 +5736,11 @@
         <v>2</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="16" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="23" t="s">

--- a/src/TestCaseTenlyx.xlsx
+++ b/src/TestCaseTenlyx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karin\Desktop\Telnyx\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DB30AD-EB65-405C-A751-10FDCC7C8325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3499F7E3-56C9-477F-A917-DADAE5EAE565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS_0001" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="117">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -112,12 +112,6 @@
     <t>Scroll down to the footer</t>
   </si>
   <si>
-    <t xml:space="preserve">Click all social link </t>
-  </si>
-  <si>
-    <t>Check that new pages should be opened on the new tabs</t>
-  </si>
-  <si>
     <t>Сhecking the transition to pages of social networks after clicking links on the footer</t>
   </si>
   <si>
@@ -127,18 +121,12 @@
     <t>TS_0002</t>
   </si>
   <si>
-    <t>All social link is clickable.</t>
-  </si>
-  <si>
     <t>The footer of the site is displayed.</t>
   </si>
   <si>
     <t>The site should be opened.</t>
   </si>
   <si>
-    <t>Telnyx Facebook page should be opened on the new tab. Telnyx Twitter page should be opened on the new tab. Telnyx LinkedIn page should be opened on the new tab</t>
-  </si>
-  <si>
     <t>Click Support Center link on the header</t>
   </si>
   <si>
@@ -374,6 +362,24 @@
   </si>
   <si>
     <t>Verify navigation menu</t>
+  </si>
+  <si>
+    <t>Hover your mouse over the LinkedIn link</t>
+  </si>
+  <si>
+    <t>The correct url is displayed</t>
+  </si>
+  <si>
+    <t>Click Twitter link</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Telnyx Twitter page should be opened on the new tab. </t>
+  </si>
+  <si>
+    <t>Telnyx Facebook page should be opened on the new tab.</t>
+  </si>
+  <si>
+    <t>Click Facebook link.</t>
   </si>
 </sst>
 </file>
@@ -534,7 +540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -573,33 +579,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -609,8 +588,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -622,29 +650,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -665,9 +675,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -952,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -966,48 +987,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="22" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="31" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="32"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -1023,10 +1044,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="11"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1051,29 +1072,29 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="36">
+      <c r="E6" s="30"/>
+      <c r="F6" s="24">
         <v>44904</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="33" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="33"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -1092,94 +1113,94 @@
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="3"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="3"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="3"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="3"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
@@ -1199,7 +1220,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1212,197 +1233,170 @@
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="26" t="s">
+      <c r="E16" s="37"/>
+      <c r="F16" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="26" t="s">
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="23" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="23" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="23" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="23" t="s">
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
-    </row>
-    <row r="21" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="51"/>
+      <c r="D20" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="51"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="49"/>
+    </row>
+    <row r="21" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>4</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="23" t="s">
+      <c r="B21" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="23" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="24"/>
-      <c r="K21" s="25"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="25"/>
+      <c r="A22" s="9">
+        <v>5</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="15"/>
+      <c r="K22" s="16"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="25"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D19:E19"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
@@ -1420,6 +1414,39 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="B16:C17"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1432,7 +1459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA3FE88-DBDB-4CDA-8E48-3549F45DA807}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:D11"/>
     </sheetView>
   </sheetViews>
@@ -1443,48 +1470,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="22" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="31" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="32"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -1500,10 +1527,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="11"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1528,29 +1555,29 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="36">
+      <c r="E6" s="30"/>
+      <c r="F6" s="24">
         <v>44904</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="33" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="33"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -1569,94 +1596,94 @@
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="3"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="3"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="3"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="3"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -1676,7 +1703,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1702,190 +1729,151 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="26" t="s">
+      <c r="E16" s="37"/>
+      <c r="F16" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="26" t="s">
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="23" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="23" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="23" t="s">
+      <c r="E19" s="17"/>
+      <c r="F19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="23" t="s">
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="23" t="s">
+      <c r="B20" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="23" t="s">
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="25"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="44"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="39"/>
-      <c r="C23" s="46"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1900,6 +1888,45 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1920,48 +1947,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="22" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="31" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="32"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -1977,10 +2004,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="11"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -2005,29 +2032,29 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="36">
+      <c r="E6" s="30"/>
+      <c r="F6" s="24">
         <v>44904</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="33" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="33"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -2046,94 +2073,94 @@
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="3"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="3"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="3"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="3"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -2153,7 +2180,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2179,171 +2206,208 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="26" t="s">
+      <c r="E16" s="37"/>
+      <c r="F16" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="26" t="s">
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="23" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="23" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="23" t="s">
+      <c r="B19" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="23" t="s">
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="23" t="s">
+      <c r="B20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="23" t="s">
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>4</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="23" t="s">
+      <c r="B21" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="23" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="24"/>
-      <c r="K21" s="25"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>5</v>
       </c>
-      <c r="B22" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47" t="s">
-        <v>42</v>
+      <c r="B22" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="E22" s="39"/>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="40" t="s">
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="44"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="39"/>
-      <c r="C23" s="46"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="F16:H17"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
@@ -2360,43 +2424,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D20:E20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2420,48 +2447,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="22" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="31" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="32"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -2477,10 +2504,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="11"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -2505,29 +2532,29 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="36">
+      <c r="E6" s="30"/>
+      <c r="F6" s="24">
         <v>44904</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="33" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="33"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -2546,94 +2573,94 @@
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="3"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="3"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="3"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="3"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -2653,7 +2680,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2679,171 +2706,208 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="26" t="s">
+      <c r="E16" s="37"/>
+      <c r="F16" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="26" t="s">
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="23" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="23" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="23" t="s">
+      <c r="B19" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="23" t="s">
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="23" t="s">
+      <c r="B20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="23" t="s">
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>4</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="23" t="s">
+      <c r="B21" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="23" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="24"/>
-      <c r="K21" s="25"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>5</v>
       </c>
-      <c r="B22" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47" t="s">
-        <v>56</v>
+      <c r="B22" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41" t="s">
+        <v>52</v>
       </c>
       <c r="E22" s="39"/>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="40" t="s">
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="44"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="39"/>
-      <c r="C23" s="46"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="F16:H17"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
@@ -2860,43 +2924,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D20:E20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2919,48 +2946,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="22" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="31" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="32"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -2976,10 +3003,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="11"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -3004,29 +3031,29 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="36">
+      <c r="E6" s="30"/>
+      <c r="F6" s="24">
         <v>44904</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="33" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="33"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -3045,94 +3072,94 @@
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="3"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="3"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="3"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="3"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -3152,7 +3179,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3178,210 +3205,171 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="26" t="s">
+      <c r="E16" s="37"/>
+      <c r="F16" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="26" t="s">
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="23" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="23" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="23" t="s">
+      <c r="B19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="23" t="s">
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="23" t="s">
+      <c r="B20" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="23" t="s">
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>4</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="23" t="s">
+      <c r="B21" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="23" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="24"/>
-      <c r="K21" s="25"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>5</v>
       </c>
-      <c r="B22" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47" t="s">
-        <v>57</v>
+      <c r="B22" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41" t="s">
+        <v>53</v>
       </c>
       <c r="E22" s="39"/>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="40" t="s">
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="44"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="39"/>
-      <c r="C23" s="46"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -3396,6 +3384,45 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3417,48 +3444,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="22" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="31" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="32"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -3474,10 +3501,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="11"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -3502,29 +3529,29 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="36">
+      <c r="E6" s="30"/>
+      <c r="F6" s="24">
         <v>44904</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="33" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="33"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -3543,94 +3570,94 @@
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="3"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="3"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="3"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="3"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -3650,7 +3677,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -3676,210 +3703,171 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="26" t="s">
+      <c r="E16" s="37"/>
+      <c r="F16" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="26" t="s">
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="23" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="23" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="23" t="s">
+      <c r="B19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="23" t="s">
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="23" t="s">
+      <c r="B20" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="23" t="s">
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>4</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="16" t="s">
+      <c r="B21" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="23" t="s">
+      <c r="C21" s="18"/>
+      <c r="D21" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="23" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="24"/>
-      <c r="K21" s="25"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>5</v>
       </c>
-      <c r="B22" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47" t="s">
-        <v>63</v>
+      <c r="B22" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41" t="s">
+        <v>59</v>
       </c>
       <c r="E22" s="39"/>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="40" t="s">
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="44"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="39"/>
-      <c r="C23" s="46"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -3894,6 +3882,45 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3915,48 +3942,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="22" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="31" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="32"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -3972,10 +3999,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="11"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -4000,29 +4027,29 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="36">
+      <c r="E6" s="30"/>
+      <c r="F6" s="24">
         <v>44904</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="33"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -4041,94 +4068,94 @@
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="3"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="3"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="3"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="3"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -4148,7 +4175,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4174,210 +4201,171 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="26" t="s">
+      <c r="E16" s="37"/>
+      <c r="F16" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="26" t="s">
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="23" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="23" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="23" t="s">
+      <c r="B19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="23" t="s">
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="23" t="s">
+      <c r="B20" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="23" t="s">
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>4</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="23" t="s">
+      <c r="B21" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="23" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="24"/>
-      <c r="K21" s="25"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>5</v>
       </c>
-      <c r="B22" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47" t="s">
-        <v>107</v>
+      <c r="B22" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="E22" s="39"/>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="23" t="s">
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="24"/>
-      <c r="K22" s="25"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="16"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="39"/>
-      <c r="C23" s="46"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -4392,6 +4380,45 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4412,48 +4439,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="22" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="31" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="32"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -4469,10 +4496,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="11"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -4497,29 +4524,29 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="36">
+      <c r="E6" s="30"/>
+      <c r="F6" s="24">
         <v>44904</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="33" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="33"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -4538,96 +4565,96 @@
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="3"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="G9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="3"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="3"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="3"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -4647,7 +4674,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4673,210 +4700,171 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="26" t="s">
+      <c r="E16" s="37"/>
+      <c r="F16" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="26" t="s">
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" spans="1:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="23" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="23" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="23" t="s">
+      <c r="B19" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="23" t="s">
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="23" t="s">
+      <c r="B20" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="23" t="s">
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>4</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="23" t="s">
+      <c r="B21" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="23" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="24"/>
-      <c r="K21" s="25"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>5</v>
       </c>
-      <c r="B22" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47" t="s">
-        <v>79</v>
+      <c r="B22" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41" t="s">
+        <v>75</v>
       </c>
       <c r="E22" s="39"/>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="40" t="s">
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="44"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="39"/>
-      <c r="C23" s="46"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -4891,6 +4879,45 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4911,48 +4938,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="22" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="31" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="32"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -4968,10 +4995,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="11"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -4996,29 +5023,29 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="36">
+      <c r="E6" s="30"/>
+      <c r="F6" s="24">
         <v>44904</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="33" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="33"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -5037,98 +5064,98 @@
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="3"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="G9" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="3"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
+      <c r="G10" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="3"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="3"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -5148,7 +5175,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -5174,210 +5201,171 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="26" t="s">
+      <c r="E16" s="37"/>
+      <c r="F16" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="26" t="s">
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="23" t="s">
+      <c r="B18" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="23" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="23" t="s">
+      <c r="B19" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="23" t="s">
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="23" t="s">
+      <c r="B20" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="23" t="s">
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>4</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="23" t="s">
+      <c r="B21" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="23" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="24"/>
-      <c r="K21" s="25"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>5</v>
       </c>
-      <c r="B22" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47" t="s">
-        <v>93</v>
+      <c r="B22" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41" t="s">
+        <v>89</v>
       </c>
       <c r="E22" s="39"/>
-      <c r="F22" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
+      <c r="F22" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="43"/>
+      <c r="K22" s="44"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="39"/>
-      <c r="C23" s="46"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -5392,6 +5380,45 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5412,48 +5439,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="22" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="31" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="32"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -5469,10 +5496,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="11"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -5497,29 +5524,29 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="36">
+      <c r="E6" s="30"/>
+      <c r="F6" s="24">
         <v>44904</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="33" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="33"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -5538,96 +5565,96 @@
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="3"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="G9" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="3"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="3"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="3"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -5647,7 +5674,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -5673,180 +5700,141 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="26" t="s">
+      <c r="E16" s="37"/>
+      <c r="F16" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="26" t="s">
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="23" t="s">
+      <c r="B18" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="23" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="1:11" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="23" t="s">
+      <c r="B19" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="23" t="s">
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="25"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="44"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="39"/>
-      <c r="C23" s="46"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -5861,6 +5849,45 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
